--- a/pheno_data/DArT_Alfalfa_Project_11_shared_sample_names_from_pedigree_CM.xlsx
+++ b/pheno_data/DArT_Alfalfa_Project_11_shared_sample_names_from_pedigree_CM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Roza_2019/pheno_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D3909-12C5-4643-AC9A-C8D86945AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC4236-E712-F841-8527-CABA6F49E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8315" uniqueCount="3253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8324" uniqueCount="3257">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -9793,9 +9793,6 @@
     <t>1622 (30)</t>
   </si>
   <si>
-    <t>Parental</t>
-  </si>
-  <si>
     <t>BC</t>
   </si>
   <si>
@@ -9805,7 +9802,22 @@
     <t>↓</t>
   </si>
   <si>
-    <t>424 Families</t>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>436 Families</t>
   </si>
 </sst>
 </file>
@@ -9815,7 +9827,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -9882,8 +9894,21 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9942,6 +9967,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -10037,7 +10068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10078,31 +10109,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -26172,8 +26207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ425"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="A428" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16"/>
@@ -58623,7 +58658,7 @@
         <v>3</v>
       </c>
       <c r="AA386" s="6" t="b">
-        <f t="shared" ref="AA386:AA449" si="6">Y386=Z386</f>
+        <f t="shared" ref="AA386:AA425" si="6">Y386=Z386</f>
         <v>1</v>
       </c>
     </row>
@@ -61916,19 +61951,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>1963</v>
       </c>
@@ -61962,17 +61998,35 @@
       <c r="K1" t="s">
         <v>3233</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22" t="s">
         <v>3243</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22" t="s">
         <v>3244</v>
       </c>
-      <c r="Q1" s="22"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="Q1" s="23"/>
+      <c r="U1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>1</v>
       </c>
@@ -62010,21 +62064,49 @@
         <f t="shared" ref="K2:K31" si="3">B2+E2+H2</f>
         <v>2</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>3245</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>3250</v>
-      </c>
-      <c r="P2" s="24" t="s">
+      <c r="O2" s="30" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>3246</v>
       </c>
-      <c r="Q2" s="25" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2" s="26" t="s">
+        <v>3254</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>W2+X2+Y2</f>
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3251</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -62062,15 +62144,43 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
-        <v>3251</v>
-      </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25" t="s">
+        <v>3250</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="19">
+        <v>2</v>
+      </c>
+      <c r="W3" s="19">
+        <v>13</v>
+      </c>
+      <c r="X3" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="19">
+        <f>W3+X3+Y3</f>
+        <v>16</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -62108,21 +62218,46 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="24" t="s">
         <v>3245</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>3250</v>
-      </c>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="30" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>3247</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="19">
+        <v>3</v>
+      </c>
+      <c r="W4" s="19">
+        <v>17</v>
+      </c>
+      <c r="X4" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19">
+        <f>W4+X4+Y4</f>
+        <v>20</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -62160,15 +62295,37 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24" t="s">
-        <v>3251</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="M5" s="24"/>
+      <c r="N5" s="25" t="s">
+        <v>3250</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="19">
+        <v>4</v>
+      </c>
+      <c r="W5" s="19">
+        <v>11</v>
+      </c>
+      <c r="X5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <f>W5+X5+Y5</f>
+        <v>12</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -62206,17 +62363,39 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27" t="s">
-        <v>3252</v>
-      </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28" t="s">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="M6" s="27"/>
+      <c r="N6" s="28" t="s">
+        <v>3256</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29" t="s">
+        <v>3248</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="19">
+        <v>5</v>
+      </c>
+      <c r="W6" s="19">
+        <v>18</v>
+      </c>
+      <c r="X6" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>W6+X6+Y6</f>
+        <v>22</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -62254,8 +62433,30 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7" s="19">
+        <v>6</v>
+      </c>
+      <c r="W7" s="19">
+        <v>11</v>
+      </c>
+      <c r="X7" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="19">
+        <f>W7+X7+Y7</f>
+        <v>17</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -62293,8 +62494,30 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8" s="19">
+        <v>7</v>
+      </c>
+      <c r="W8" s="19">
+        <v>7</v>
+      </c>
+      <c r="X8" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="19">
+        <f>W8+X8+Y8</f>
+        <v>10</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -62332,8 +62555,30 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9" s="19">
+        <v>8</v>
+      </c>
+      <c r="W9" s="19">
+        <v>3</v>
+      </c>
+      <c r="X9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="19">
+        <f>W9+X9+Y9</f>
+        <v>3</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -62371,8 +62616,30 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10" s="19">
+        <v>9</v>
+      </c>
+      <c r="W10" s="19">
+        <v>7</v>
+      </c>
+      <c r="X10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="19">
+        <f>W10+X10+Y10</f>
+        <v>8</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -62410,8 +62677,30 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="19">
+        <v>10</v>
+      </c>
+      <c r="W11" s="19">
+        <v>12</v>
+      </c>
+      <c r="X11" s="19">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="19">
+        <f>W11+X11+Y11</f>
+        <v>18</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -62449,8 +62738,30 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12" s="19">
+        <v>11</v>
+      </c>
+      <c r="W12" s="19">
+        <v>11</v>
+      </c>
+      <c r="X12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="19">
+        <f>W12+X12+Y12</f>
+        <v>13</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -62488,8 +62799,30 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13" s="19">
+        <v>12</v>
+      </c>
+      <c r="W13" s="19">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="19">
+        <f>W13+X13+Y13</f>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -62527,8 +62860,30 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14" s="19">
+        <v>13</v>
+      </c>
+      <c r="W14" s="19">
+        <v>15</v>
+      </c>
+      <c r="X14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="19">
+        <f>W14+X14+Y14</f>
+        <v>15</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -62566,8 +62921,30 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="U15">
+        <v>14</v>
+      </c>
+      <c r="V15" s="19">
+        <v>14</v>
+      </c>
+      <c r="W15" s="19">
+        <v>9</v>
+      </c>
+      <c r="X15" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="19">
+        <f>W15+X15+Y15</f>
+        <v>13</v>
+      </c>
+      <c r="AC15" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -62605,8 +62982,30 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="V16" s="17">
+        <v>15</v>
+      </c>
+      <c r="W16" s="17">
+        <v>1</v>
+      </c>
+      <c r="X16" s="17">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <f>W16+X16+Y16</f>
+        <v>32</v>
+      </c>
+      <c r="AC16" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -62644,8 +63043,30 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="U17">
+        <v>16</v>
+      </c>
+      <c r="V17" s="18">
+        <v>16</v>
+      </c>
+      <c r="W17" s="18">
+        <v>2</v>
+      </c>
+      <c r="X17" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="18">
+        <f>W17+X17+Y17</f>
+        <v>12</v>
+      </c>
+      <c r="AC17" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -62683,8 +63104,30 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="U18">
+        <v>17</v>
+      </c>
+      <c r="V18" s="19">
+        <v>17</v>
+      </c>
+      <c r="W18" s="19">
+        <v>13</v>
+      </c>
+      <c r="X18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="19">
+        <f>W18+X18+Y18</f>
+        <v>16</v>
+      </c>
+      <c r="AC18" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -62722,8 +63165,30 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="U19">
+        <v>18</v>
+      </c>
+      <c r="V19" s="18">
+        <v>18</v>
+      </c>
+      <c r="W19" s="18">
+        <v>1</v>
+      </c>
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>28</v>
+      </c>
+      <c r="Z19" s="18">
+        <f>W19+X19+Y19</f>
+        <v>29</v>
+      </c>
+      <c r="AC19" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -62761,8 +63226,30 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="U20">
+        <v>19</v>
+      </c>
+      <c r="V20" s="19">
+        <v>19</v>
+      </c>
+      <c r="W20" s="19">
+        <v>17</v>
+      </c>
+      <c r="X20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="19">
+        <f>W20+X20+Y20</f>
+        <v>18</v>
+      </c>
+      <c r="AC20" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -62800,8 +63287,30 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21" s="19">
+        <v>20</v>
+      </c>
+      <c r="W21" s="19">
+        <v>15</v>
+      </c>
+      <c r="X21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19">
+        <f>W21+X21+Y21</f>
+        <v>15</v>
+      </c>
+      <c r="AC21" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>21</v>
       </c>
@@ -62839,8 +63348,30 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <v>21</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <f>W22+X22+Y22</f>
+        <v>13</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -62878,8 +63409,30 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="U23">
+        <v>22</v>
+      </c>
+      <c r="V23" s="19">
+        <v>22</v>
+      </c>
+      <c r="W23" s="19">
+        <v>18</v>
+      </c>
+      <c r="X23" s="19">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="19">
+        <f>W23+X23+Y23</f>
+        <v>24</v>
+      </c>
+      <c r="AC23" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -62917,8 +63470,30 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="U24">
+        <v>23</v>
+      </c>
+      <c r="V24" s="19">
+        <v>23</v>
+      </c>
+      <c r="W24" s="19">
+        <v>16</v>
+      </c>
+      <c r="X24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="19">
+        <f>W24+X24+Y24</f>
+        <v>18</v>
+      </c>
+      <c r="AC24" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>25</v>
       </c>
@@ -62956,8 +63531,30 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="U25">
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <v>25</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <f>W25+X25+Y25</f>
+        <v>3</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="19">
         <v>26</v>
       </c>
@@ -62995,8 +63592,30 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="U26">
+        <v>25</v>
+      </c>
+      <c r="V26" s="19">
+        <v>26</v>
+      </c>
+      <c r="W26" s="19">
+        <v>22</v>
+      </c>
+      <c r="X26" s="19">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="19">
+        <f>W26+X26+Y26</f>
+        <v>31</v>
+      </c>
+      <c r="AC26" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="19">
         <v>28</v>
       </c>
@@ -63034,8 +63653,27 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="U27">
+        <v>26</v>
+      </c>
+      <c r="V27" s="19">
+        <v>28</v>
+      </c>
+      <c r="W27" s="19">
+        <v>7</v>
+      </c>
+      <c r="X27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="19">
+        <f>W27+X27+Y27</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="19">
         <v>29</v>
       </c>
@@ -63073,8 +63711,27 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="U28">
+        <v>27</v>
+      </c>
+      <c r="V28" s="19">
+        <v>29</v>
+      </c>
+      <c r="W28" s="19">
+        <v>6</v>
+      </c>
+      <c r="X28" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="19">
+        <f>W28+X28+Y28</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="19">
         <v>30</v>
       </c>
@@ -63112,8 +63769,27 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="U29">
+        <v>28</v>
+      </c>
+      <c r="V29" s="19">
+        <v>30</v>
+      </c>
+      <c r="W29" s="19">
+        <v>17</v>
+      </c>
+      <c r="X29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="19">
+        <f>W29+X29+Y29</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="19">
         <v>31</v>
       </c>
@@ -63151,8 +63827,27 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="U30">
+        <v>29</v>
+      </c>
+      <c r="V30" s="19">
+        <v>31</v>
+      </c>
+      <c r="W30" s="19">
+        <v>4</v>
+      </c>
+      <c r="X30" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="19">
+        <f>W30+X30+Y30</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="19">
         <v>32</v>
       </c>
@@ -63190,14 +63885,88 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="U31">
+        <v>30</v>
+      </c>
+      <c r="V31" s="19">
+        <v>32</v>
+      </c>
+      <c r="W31" s="19">
+        <v>2</v>
+      </c>
+      <c r="X31" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="19">
+        <f>W31+X31+Y31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
         <v>3233</v>
       </c>
       <c r="K32">
         <f>SUM(K2:K31)</f>
         <v>424</v>
+      </c>
+      <c r="W32">
+        <f>SUM(W2:W31)</f>
+        <v>285</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ref="X32:Y32" si="4">SUM(X2:X31)</f>
+        <v>71</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="Z32">
+        <f>SUM(Z2:Z31)</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="10:26">
+      <c r="J34">
+        <v>1283</v>
+      </c>
+      <c r="K34">
+        <v>40</v>
+      </c>
+      <c r="L34">
+        <f>J34+K34</f>
+        <v>1323</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>68</v>
+      </c>
+      <c r="Z34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="10:26">
+      <c r="Y35" s="19">
+        <v>28</v>
+      </c>
+      <c r="Z35">
+        <f>Y35*Z34/Y34</f>
+        <v>41.176470588235297</v>
+      </c>
+    </row>
+    <row r="37" spans="10:26">
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>436</v>
+      </c>
+      <c r="L37">
+        <f>K37*J37</f>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
